--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Anxa1-Egfr.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Anxa1-Egfr.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.4550015534601</v>
+        <v>50.24752933333333</v>
       </c>
       <c r="H2">
-        <v>18.4550015534601</v>
+        <v>150.742588</v>
       </c>
       <c r="I2">
-        <v>0.05438230459762473</v>
+        <v>0.1294604271951564</v>
       </c>
       <c r="J2">
-        <v>0.05438230459762473</v>
+        <v>0.1294604271951564</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.25791722061932</v>
+        <v>2.701354</v>
       </c>
       <c r="N2">
-        <v>1.25791722061932</v>
+        <v>8.104061999999999</v>
       </c>
       <c r="O2">
-        <v>0.01057819781394336</v>
+        <v>0.02221077311549548</v>
       </c>
       <c r="P2">
-        <v>0.01057819781394336</v>
+        <v>0.02221077311549548</v>
       </c>
       <c r="Q2">
-        <v>23.21486426065377</v>
+        <v>135.7363643547173</v>
       </c>
       <c r="R2">
-        <v>23.21486426065377</v>
+        <v>1221.627279192456</v>
       </c>
       <c r="S2">
-        <v>0.0005752667756117958</v>
+        <v>0.002875416175866739</v>
       </c>
       <c r="T2">
-        <v>0.0005752667756117958</v>
+        <v>0.002875416175866739</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.4550015534601</v>
+        <v>50.24752933333333</v>
       </c>
       <c r="H3">
-        <v>18.4550015534601</v>
+        <v>150.742588</v>
       </c>
       <c r="I3">
-        <v>0.05438230459762473</v>
+        <v>0.1294604271951564</v>
       </c>
       <c r="J3">
-        <v>0.05438230459762473</v>
+        <v>0.1294604271951564</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>86.98527967358849</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N3">
-        <v>86.98527967358849</v>
+        <v>264.449356</v>
       </c>
       <c r="O3">
-        <v>0.7314849341480372</v>
+        <v>0.7247753838328104</v>
       </c>
       <c r="P3">
-        <v>0.7314849341480372</v>
+        <v>0.7247753838328105</v>
       </c>
       <c r="Q3">
-        <v>1605.313471504237</v>
+        <v>4429.308924263702</v>
       </c>
       <c r="R3">
-        <v>1605.313471504237</v>
+        <v>39863.78031837332</v>
       </c>
       <c r="S3">
-        <v>0.03977983649741202</v>
+        <v>0.09382973081152905</v>
       </c>
       <c r="T3">
-        <v>0.03977983649741202</v>
+        <v>0.09382973081152908</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.4550015534601</v>
+        <v>50.24752933333333</v>
       </c>
       <c r="H4">
-        <v>18.4550015534601</v>
+        <v>150.742588</v>
       </c>
       <c r="I4">
-        <v>0.05438230459762473</v>
+        <v>0.1294604271951564</v>
       </c>
       <c r="J4">
-        <v>0.05438230459762473</v>
+        <v>0.1294604271951564</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.226679650319968</v>
+        <v>0.24063</v>
       </c>
       <c r="N4">
-        <v>0.226679650319968</v>
+        <v>0.72189</v>
       </c>
       <c r="O4">
-        <v>0.001906216197834999</v>
+        <v>0.001978481285600361</v>
       </c>
       <c r="P4">
-        <v>0.001906216197834999</v>
+        <v>0.001978481285600361</v>
       </c>
       <c r="Q4">
-        <v>4.183373298792802</v>
+        <v>12.09106298348</v>
       </c>
       <c r="R4">
-        <v>4.183373298792802</v>
+        <v>108.81956685132</v>
       </c>
       <c r="S4">
-        <v>0.000103664429899589</v>
+        <v>0.0002561350324314449</v>
       </c>
       <c r="T4">
-        <v>0.000103664429899589</v>
+        <v>0.000256135032431445</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.4550015534601</v>
+        <v>50.24752933333333</v>
       </c>
       <c r="H5">
-        <v>18.4550015534601</v>
+        <v>150.742588</v>
       </c>
       <c r="I5">
-        <v>0.05438230459762473</v>
+        <v>0.1294604271951564</v>
       </c>
       <c r="J5">
-        <v>0.05438230459762473</v>
+        <v>0.1294604271951564</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.4461470300391</v>
+        <v>30.53182233333333</v>
       </c>
       <c r="N5">
-        <v>30.4461470300391</v>
+        <v>91.595467</v>
       </c>
       <c r="O5">
-        <v>0.2560306518401845</v>
+        <v>0.2510353617660938</v>
       </c>
       <c r="P5">
-        <v>0.2560306518401845</v>
+        <v>0.2510353617660938</v>
       </c>
       <c r="Q5">
-        <v>561.8836907362462</v>
+        <v>1534.148638294288</v>
       </c>
       <c r="R5">
-        <v>561.8836907362462</v>
+        <v>13807.33774464859</v>
       </c>
       <c r="S5">
-        <v>0.01392353689470132</v>
+        <v>0.03249914517532913</v>
       </c>
       <c r="T5">
-        <v>0.01392353689470132</v>
+        <v>0.03249914517532913</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>150.975328138776</v>
+        <v>151.42276</v>
       </c>
       <c r="H6">
-        <v>150.975328138776</v>
+        <v>454.26828</v>
       </c>
       <c r="I6">
-        <v>0.4448867835521751</v>
+        <v>0.3901337131747328</v>
       </c>
       <c r="J6">
-        <v>0.4448867835521751</v>
+        <v>0.3901337131747328</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.25791722061932</v>
+        <v>2.701354</v>
       </c>
       <c r="N6">
-        <v>1.25791722061932</v>
+        <v>8.104061999999999</v>
       </c>
       <c r="O6">
-        <v>0.01057819781394336</v>
+        <v>0.02221077311549548</v>
       </c>
       <c r="P6">
-        <v>0.01057819781394336</v>
+        <v>0.02221077311549548</v>
       </c>
       <c r="Q6">
-        <v>189.9144651544189</v>
+        <v>409.04647841704</v>
       </c>
       <c r="R6">
-        <v>189.9144651544189</v>
+        <v>3681.41830575336</v>
       </c>
       <c r="S6">
-        <v>0.004706100401223911</v>
+        <v>0.008665171388029779</v>
       </c>
       <c r="T6">
-        <v>0.004706100401223911</v>
+        <v>0.008665171388029779</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>150.975328138776</v>
+        <v>151.42276</v>
       </c>
       <c r="H7">
-        <v>150.975328138776</v>
+        <v>454.26828</v>
       </c>
       <c r="I7">
-        <v>0.4448867835521751</v>
+        <v>0.3901337131747328</v>
       </c>
       <c r="J7">
-        <v>0.4448867835521751</v>
+        <v>0.3901337131747328</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>86.98527967358849</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N7">
-        <v>86.98527967358849</v>
+        <v>264.449356</v>
       </c>
       <c r="O7">
-        <v>0.7314849341480372</v>
+        <v>0.7247753838328104</v>
       </c>
       <c r="P7">
-        <v>0.7314849341480372</v>
+        <v>0.7247753838328105</v>
       </c>
       <c r="Q7">
-        <v>13132.63114196323</v>
+        <v>13347.88378858085</v>
       </c>
       <c r="R7">
-        <v>13132.63114196323</v>
+        <v>120130.9540972277</v>
       </c>
       <c r="S7">
-        <v>0.3254279795699949</v>
+        <v>0.2827593117123365</v>
       </c>
       <c r="T7">
-        <v>0.3254279795699949</v>
+        <v>0.2827593117123365</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>150.975328138776</v>
+        <v>151.42276</v>
       </c>
       <c r="H8">
-        <v>150.975328138776</v>
+        <v>454.26828</v>
       </c>
       <c r="I8">
-        <v>0.4448867835521751</v>
+        <v>0.3901337131747328</v>
       </c>
       <c r="J8">
-        <v>0.4448867835521751</v>
+        <v>0.3901337131747328</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.226679650319968</v>
+        <v>0.24063</v>
       </c>
       <c r="N8">
-        <v>0.226679650319968</v>
+        <v>0.72189</v>
       </c>
       <c r="O8">
-        <v>0.001906216197834999</v>
+        <v>0.001978481285600361</v>
       </c>
       <c r="P8">
-        <v>0.001906216197834999</v>
+        <v>0.001978481285600361</v>
       </c>
       <c r="Q8">
-        <v>34.22303458944017</v>
+        <v>36.43685873880001</v>
       </c>
       <c r="R8">
-        <v>34.22303458944017</v>
+        <v>327.9317286492</v>
       </c>
       <c r="S8">
-        <v>0.0008480503930098695</v>
+        <v>0.0007718722503979879</v>
       </c>
       <c r="T8">
-        <v>0.0008480503930098695</v>
+        <v>0.0007718722503979879</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>150.975328138776</v>
+        <v>151.42276</v>
       </c>
       <c r="H9">
-        <v>150.975328138776</v>
+        <v>454.26828</v>
       </c>
       <c r="I9">
-        <v>0.4448867835521751</v>
+        <v>0.3901337131747328</v>
       </c>
       <c r="J9">
-        <v>0.4448867835521751</v>
+        <v>0.3901337131747328</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>30.4461470300391</v>
+        <v>30.53182233333333</v>
       </c>
       <c r="N9">
-        <v>30.4461470300391</v>
+        <v>91.595467</v>
       </c>
       <c r="O9">
-        <v>0.2560306518401845</v>
+        <v>0.2510353617660938</v>
       </c>
       <c r="P9">
-        <v>0.2560306518401845</v>
+        <v>0.2510353617660938</v>
       </c>
       <c r="Q9">
-        <v>4596.617038421574</v>
+        <v>4623.212805542974</v>
       </c>
       <c r="R9">
-        <v>4596.617038421574</v>
+        <v>41608.91524988676</v>
       </c>
       <c r="S9">
-        <v>0.1139046531879465</v>
+        <v>0.09793735782396852</v>
       </c>
       <c r="T9">
-        <v>0.1139046531879465</v>
+        <v>0.09793735782396852</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>71.4777355430884</v>
+        <v>85.147481</v>
       </c>
       <c r="H10">
-        <v>71.4777355430884</v>
+        <v>255.442443</v>
       </c>
       <c r="I10">
-        <v>0.2106271286400358</v>
+        <v>0.2193785328573129</v>
       </c>
       <c r="J10">
-        <v>0.2106271286400358</v>
+        <v>0.2193785328573129</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.25791722061932</v>
+        <v>2.701354</v>
       </c>
       <c r="N10">
-        <v>1.25791722061932</v>
+        <v>8.104061999999999</v>
       </c>
       <c r="O10">
-        <v>0.01057819781394336</v>
+        <v>0.02221077311549548</v>
       </c>
       <c r="P10">
-        <v>0.01057819781394336</v>
+        <v>0.02221077311549548</v>
       </c>
       <c r="Q10">
-        <v>89.91307443052455</v>
+        <v>230.013488389274</v>
       </c>
       <c r="R10">
-        <v>89.91307443052455</v>
+        <v>2070.121395503466</v>
       </c>
       <c r="S10">
-        <v>0.002228055431737193</v>
+        <v>0.004872566819704048</v>
       </c>
       <c r="T10">
-        <v>0.002228055431737193</v>
+        <v>0.004872566819704048</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>71.4777355430884</v>
+        <v>85.147481</v>
       </c>
       <c r="H11">
-        <v>71.4777355430884</v>
+        <v>255.442443</v>
       </c>
       <c r="I11">
-        <v>0.2106271286400358</v>
+        <v>0.2193785328573129</v>
       </c>
       <c r="J11">
-        <v>0.2106271286400358</v>
+        <v>0.2193785328573129</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>86.98527967358849</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N11">
-        <v>86.98527967358849</v>
+        <v>264.449356</v>
       </c>
       <c r="O11">
-        <v>0.7314849341480372</v>
+        <v>0.7247753838328104</v>
       </c>
       <c r="P11">
-        <v>0.7314849341480372</v>
+        <v>0.7247753838328105</v>
       </c>
       <c r="Q11">
-        <v>6217.510816650341</v>
+        <v>7505.732171824078</v>
       </c>
       <c r="R11">
-        <v>6217.510816650341</v>
+        <v>67551.5895464167</v>
       </c>
       <c r="S11">
-        <v>0.1540705713230467</v>
+        <v>0.1590001603563378</v>
       </c>
       <c r="T11">
-        <v>0.1540705713230467</v>
+        <v>0.1590001603563378</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>71.4777355430884</v>
+        <v>85.147481</v>
       </c>
       <c r="H12">
-        <v>71.4777355430884</v>
+        <v>255.442443</v>
       </c>
       <c r="I12">
-        <v>0.2106271286400358</v>
+        <v>0.2193785328573129</v>
       </c>
       <c r="J12">
-        <v>0.2106271286400358</v>
+        <v>0.2193785328573129</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.226679650319968</v>
+        <v>0.24063</v>
       </c>
       <c r="N12">
-        <v>0.226679650319968</v>
+        <v>0.72189</v>
       </c>
       <c r="O12">
-        <v>0.001906216197834999</v>
+        <v>0.001978481285600361</v>
       </c>
       <c r="P12">
-        <v>0.001906216197834999</v>
+        <v>0.001978481285600361</v>
       </c>
       <c r="Q12">
-        <v>16.20254809857043</v>
+        <v>20.48903835303</v>
       </c>
       <c r="R12">
-        <v>16.20254809857043</v>
+        <v>184.40134517727</v>
       </c>
       <c r="S12">
-        <v>0.0004015008443171122</v>
+        <v>0.0004340363217206576</v>
       </c>
       <c r="T12">
-        <v>0.0004015008443171122</v>
+        <v>0.0004340363217206576</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>71.4777355430884</v>
+        <v>85.147481</v>
       </c>
       <c r="H13">
-        <v>71.4777355430884</v>
+        <v>255.442443</v>
       </c>
       <c r="I13">
-        <v>0.2106271286400358</v>
+        <v>0.2193785328573129</v>
       </c>
       <c r="J13">
-        <v>0.2106271286400358</v>
+        <v>0.2193785328573129</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>30.4461470300391</v>
+        <v>30.53182233333333</v>
       </c>
       <c r="N13">
-        <v>30.4461470300391</v>
+        <v>91.595467</v>
       </c>
       <c r="O13">
-        <v>0.2560306518401845</v>
+        <v>0.2510353617660938</v>
       </c>
       <c r="P13">
-        <v>0.2560306518401845</v>
+        <v>0.2510353617660938</v>
       </c>
       <c r="Q13">
-        <v>2176.221645719121</v>
+        <v>2599.707762022876</v>
       </c>
       <c r="R13">
-        <v>2176.221645719121</v>
+        <v>23397.36985820588</v>
       </c>
       <c r="S13">
-        <v>0.05392700104093474</v>
+        <v>0.05507176935955044</v>
       </c>
       <c r="T13">
-        <v>0.05392700104093474</v>
+        <v>0.05507176935955044</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>98.4486738732672</v>
+        <v>101.3126446666667</v>
       </c>
       <c r="H14">
-        <v>98.4486738732672</v>
+        <v>303.937934</v>
       </c>
       <c r="I14">
-        <v>0.2901037832101644</v>
+        <v>0.2610273267727979</v>
       </c>
       <c r="J14">
-        <v>0.2901037832101644</v>
+        <v>0.2610273267727979</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.25791722061932</v>
+        <v>2.701354</v>
       </c>
       <c r="N14">
-        <v>1.25791722061932</v>
+        <v>8.104061999999999</v>
       </c>
       <c r="O14">
-        <v>0.01057819781394336</v>
+        <v>0.02221077311549548</v>
       </c>
       <c r="P14">
-        <v>0.01057819781394336</v>
+        <v>0.02221077311549548</v>
       </c>
       <c r="Q14">
-        <v>123.8402822123181</v>
+        <v>273.6813179208787</v>
       </c>
       <c r="R14">
-        <v>123.8402822123181</v>
+        <v>2463.131861287908</v>
       </c>
       <c r="S14">
-        <v>0.003068775205370459</v>
+        <v>0.005797618731894915</v>
       </c>
       <c r="T14">
-        <v>0.003068775205370459</v>
+        <v>0.005797618731894915</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>98.4486738732672</v>
+        <v>101.3126446666667</v>
       </c>
       <c r="H15">
-        <v>98.4486738732672</v>
+        <v>303.937934</v>
       </c>
       <c r="I15">
-        <v>0.2901037832101644</v>
+        <v>0.2610273267727979</v>
       </c>
       <c r="J15">
-        <v>0.2901037832101644</v>
+        <v>0.2610273267727979</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>86.98527967358849</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N15">
-        <v>86.98527967358849</v>
+        <v>264.449356</v>
       </c>
       <c r="O15">
-        <v>0.7314849341480372</v>
+        <v>0.7247753838328104</v>
       </c>
       <c r="P15">
-        <v>0.7314849341480372</v>
+        <v>0.7247753838328105</v>
       </c>
       <c r="Q15">
-        <v>8563.585430360052</v>
+        <v>8930.687878918945</v>
       </c>
       <c r="R15">
-        <v>8563.585430360052</v>
+        <v>80376.19091027051</v>
       </c>
       <c r="S15">
-        <v>0.2122065467575835</v>
+        <v>0.1891861809526071</v>
       </c>
       <c r="T15">
-        <v>0.2122065467575835</v>
+        <v>0.1891861809526071</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>98.4486738732672</v>
+        <v>101.3126446666667</v>
       </c>
       <c r="H16">
-        <v>98.4486738732672</v>
+        <v>303.937934</v>
       </c>
       <c r="I16">
-        <v>0.2901037832101644</v>
+        <v>0.2610273267727979</v>
       </c>
       <c r="J16">
-        <v>0.2901037832101644</v>
+        <v>0.2610273267727979</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.226679650319968</v>
+        <v>0.24063</v>
       </c>
       <c r="N16">
-        <v>0.226679650319968</v>
+        <v>0.72189</v>
       </c>
       <c r="O16">
-        <v>0.001906216197834999</v>
+        <v>0.001978481285600361</v>
       </c>
       <c r="P16">
-        <v>0.001906216197834999</v>
+        <v>0.001978481285600361</v>
       </c>
       <c r="Q16">
-        <v>22.31631096805678</v>
+        <v>24.37886168614001</v>
       </c>
       <c r="R16">
-        <v>22.31631096805678</v>
+        <v>219.40975517526</v>
       </c>
       <c r="S16">
-        <v>0.0005530005306084284</v>
+        <v>0.0005164376810502709</v>
       </c>
       <c r="T16">
-        <v>0.0005530005306084284</v>
+        <v>0.0005164376810502709</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>98.4486738732672</v>
+        <v>101.3126446666667</v>
       </c>
       <c r="H17">
-        <v>98.4486738732672</v>
+        <v>303.937934</v>
       </c>
       <c r="I17">
-        <v>0.2901037832101644</v>
+        <v>0.2610273267727979</v>
       </c>
       <c r="J17">
-        <v>0.2901037832101644</v>
+        <v>0.2610273267727979</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>30.4461470300391</v>
+        <v>30.53182233333333</v>
       </c>
       <c r="N17">
-        <v>30.4461470300391</v>
+        <v>91.595467</v>
       </c>
       <c r="O17">
-        <v>0.2560306518401845</v>
+        <v>0.2510353617660938</v>
       </c>
       <c r="P17">
-        <v>0.2560306518401845</v>
+        <v>0.2510353617660938</v>
       </c>
       <c r="Q17">
-        <v>2997.382799657862</v>
+        <v>3093.259667082798</v>
       </c>
       <c r="R17">
-        <v>2997.382799657862</v>
+        <v>27839.33700374518</v>
       </c>
       <c r="S17">
-        <v>0.07427546071660196</v>
+        <v>0.06552708940724572</v>
       </c>
       <c r="T17">
-        <v>0.07427546071660196</v>
+        <v>0.06552708940724572</v>
       </c>
     </row>
   </sheetData>
